--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,10 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
+    <sheet name="Dynamic Programming" sheetId="2" r:id="rId2"/>
+    <sheet name="KMP Pattern-Matching" sheetId="8" r:id="rId3"/>
+    <sheet name="Data Structure Question" sheetId="3" r:id="rId4"/>
+    <sheet name="BackTracking" sheetId="5" r:id="rId5"/>
+    <sheet name="DFS BFS Graph Tree" sheetId="4" r:id="rId6"/>
+    <sheet name="Merge Sort" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="205">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -44,17 +50,631 @@
     <t>Logical Thinking Process</t>
   </si>
   <si>
-    <t>sws</t>
-  </si>
-  <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game-iii/</t>
+  </si>
+  <si>
+    <t>Basic Min-Max, but Bottom Up seems to be Faster, even though TC is O(N) for both approach</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stone-game-ii</t>
+  </si>
+  <si>
+    <t>Basic Min-Max, left - minmax to get the stones Alice has collected</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distinct-subsequences-ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for subsequence, let dp[i] be the distinct subsequence ending at i,  dp[i] = sum(dp[j])(0&lt;j&lt;i) + 1, sum += dp[i]; this is the general transition equations. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/couples-holding-hands</t>
+  </si>
+  <si>
+    <t>765. Couples Holding Hands</t>
+  </si>
+  <si>
+    <t>Creat an edge between each couch (i, i + 1) that needs swapping, also use bitwise operation: x ^ 1 is partner of x no matter x being odd or even</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/frog-jump/</t>
+  </si>
+  <si>
+    <t>index jump, not actually pos jump, will save space, TC = O(N^2). SC = O(N)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-the-last-k-numbers/</t>
+  </si>
+  <si>
+    <t>look at the constraint, it needs to be O(1)</t>
+  </si>
+  <si>
+    <t>1352. Product of the Last K Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-the-array</t>
+  </si>
+  <si>
+    <t>when finding the number of ways, dp[i] = dp[i - 1] + dp[i -2]... Just like fibonacci</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream</t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>PriorityQueue , NLogN</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/closest-dessert-cost</t>
+  </si>
+  <si>
+    <t>1774. Closest Dessert Cost</t>
+  </si>
+  <si>
+    <t>generic backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/similar-string-groups</t>
+  </si>
+  <si>
+    <t>839. Similar String Groups</t>
+  </si>
+  <si>
+    <t>Nothing much to it</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-leaf-nodes-pairs</t>
+  </si>
+  <si>
+    <t>1530. Number of Good Leaf Nodes Pairs</t>
+  </si>
+  <si>
+    <t>The general thought process doesn't change, just good old pre order, the questions is what you want to get from each sub problem</t>
+  </si>
+  <si>
+    <t>1406. Stone Game III</t>
+  </si>
+  <si>
+    <t>1140. Stone Game II</t>
+  </si>
+  <si>
+    <t>940. Distinct Subsequences II</t>
+  </si>
+  <si>
+    <t>1416. Restore The Array</t>
+  </si>
+  <si>
+    <t>403. Frog Jump</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-happy-prefix</t>
+  </si>
+  <si>
+    <t>1392. Longest Happy Prefix.</t>
+  </si>
+  <si>
+    <t>KMP preprocessing is to find the longest prefix that is also suffix, at index i</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values</t>
+  </si>
+  <si>
+    <t>1849. Splitting a String Into Descending Consecutive Values</t>
+  </si>
+  <si>
+    <t>backtracking but with many edge cases</t>
+  </si>
+  <si>
+    <t>93. Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-ip-addresses</t>
+  </si>
+  <si>
+    <t>backtracking but this time with constraint, in this case, O(1) Time complexity because there are only 27 scenarios</t>
+  </si>
+  <si>
+    <t>681. Next Closest Time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-closest-time/</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water-ii</t>
+  </si>
+  <si>
+    <t>407. Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>It is about pushing the boundary inward, everytime you push a boundary, if the new cell is higher, you should update the boundary height</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-to-get-all-keys</t>
+  </si>
+  <si>
+    <t>864. Shortest Path to Get All Keys</t>
+  </si>
+  <si>
+    <t>BFS, but in this case visited is not two dimensional, it has to include another dimension, the keys it collected, since only maximum 6 keys, so we use bitmanipulation techniques</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/</t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>Classical Knapsack problem</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-2</t>
+  </si>
+  <si>
+    <t>518. Coin Change 2</t>
+  </si>
+  <si>
+    <t>Extension of classical knapsack problem</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-xor-sum-of-two-arrays</t>
+  </si>
+  <si>
+    <t>use bitmask to keep track of which number is used</t>
+  </si>
+  <si>
+    <t>1879. Minimum XOR Sum of Two Arrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors/</t>
+  </si>
+  <si>
+    <t>A different thought process, use a while loop to increment the moves gradually untill the number of floor in question is reached</t>
+  </si>
+  <si>
+    <t>1884. Egg Drop With 2 Eggs and N Floors</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/build-array-where-you-can-find-the-maximum-exactly-k-comparisons/</t>
+  </si>
+  <si>
+    <t>Generic DP approach</t>
+  </si>
+  <si>
+    <t>1420. Build Array Where You Can Find The Maximum Exactly K Comparisons</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/degree-of-an-array/</t>
+  </si>
+  <si>
+    <t>697. Degree of an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic array hashtable </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-turbulent-subarray</t>
+  </si>
+  <si>
+    <t>978. Longest Turbulent Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/optimal-account-balancing</t>
+  </si>
+  <si>
+    <t>465. Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>classical backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/domino-and-tromino-tiling</t>
+  </si>
+  <si>
+    <t>790. Domino and Tromino Tiling</t>
+  </si>
+  <si>
+    <t>The hardest part is to figure out the transition equation, there is a f(n) and p(n); f(n) = f(n - 1) + f(n-2) + 2*p(n - 1); p(n) = p(n - 1) + f(n - 2) ===&gt; f(n) = 2*f(n - 1) + f(n - 3)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-subarray-minimums</t>
+  </si>
+  <si>
+    <t>Stack question, monotonic stack, maintain a stack of local minimum / maximum</t>
+  </si>
+  <si>
+    <t>907. Sum of Subarray Minimums</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-data-in-log-files</t>
+  </si>
+  <si>
+    <t>937. Reorder Data in Log Files</t>
+  </si>
+  <si>
+    <t>PriorityQueue , MNLogN, m being the longest String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/connecting-cities-with-minimum-cost</t>
+  </si>
+  <si>
+    <t>1135. Connecting Cities With Minimum Cost</t>
+  </si>
+  <si>
+    <t>Kruskal Algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/optimize-water-distribution-in-a-village</t>
+  </si>
+  <si>
+    <t>1168. Optimize Water Distribution in a Village</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-twin-sum-of-a-linked-list</t>
+  </si>
+  <si>
+    <t>2130. Maximum Twin Sum of a Linked List</t>
+  </si>
+  <si>
+    <t>Reverse in the middle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/boundary-of-binary-tree</t>
+  </si>
+  <si>
+    <t>545. Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>you need to read the question, then proceed to solve it</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-number-of-nice-subarrays</t>
+  </si>
+  <si>
+    <t>monotonic queue or stack, keep track of odd numbers</t>
+  </si>
+  <si>
+    <t>1248. Count Number of Nice Subarrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands-ii</t>
+  </si>
+  <si>
+    <t>305. Number of Islands II</t>
+  </si>
+  <si>
+    <t>union find dfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-and-earn</t>
+  </si>
+  <si>
+    <t>740. Delete and Earn</t>
+  </si>
+  <si>
+    <t>use bucket to host the number of points,  and this becomes the house robber problem</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-sub-islands</t>
+  </si>
+  <si>
+    <t>1905. Count Sub Islands</t>
+  </si>
+  <si>
+    <t>dfs , flooding techinques</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regular-expression-matching</t>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keep in mind that * can mean </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or more of the previous char</t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray-sum-after-one-operation</t>
+  </si>
+  <si>
+    <t>1746. Maximum Subarray Sum After One Operation</t>
+  </si>
+  <si>
+    <t>it is more about how you precompute things, just like binary lifting, you have to precopute cetain things</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-removals-to-make-mountain-array/</t>
+  </si>
+  <si>
+    <t>1671. Minimum Number of Removals to Make Mountain Array</t>
+  </si>
+  <si>
+    <t>Longest increasing subarray from both sides</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-operations-to-make-the-array-k-increasing/</t>
+  </si>
+  <si>
+    <t>2111. Minimum Operations to Make the Array K-Increasing</t>
+  </si>
+  <si>
+    <t>Longest increasing subsequence in disguise</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-profit-in-job-scheduling/</t>
+  </si>
+  <si>
+    <t>1235. Maximum Profit in Job Scheduling</t>
+  </si>
+  <si>
+    <t>same as maximum earnings from taxi</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-best-non-overlapping-events/</t>
+  </si>
+  <si>
+    <t>2054. Two Best Non-Overlapping Events</t>
+  </si>
+  <si>
+    <t>same as maximum profit in job scheduling</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ways-to-make-a-fair-array/</t>
+  </si>
+  <si>
+    <t>1664. Ways to Make a Fair Array</t>
+  </si>
+  <si>
+    <t>whatever's infront is not changed, whatever is behind is switched</t>
+  </si>
+  <si>
+    <t>1155. Number of Dice Rolls With Target Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-dice-rolls-with-target-sum/</t>
+  </si>
+  <si>
+    <t>generic top down dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/paint-house-iii/</t>
+  </si>
+  <si>
+    <t>1473. Paint House III</t>
+  </si>
+  <si>
+    <t>Generic top down dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-addition/</t>
+  </si>
+  <si>
+    <t>370. Range Addition</t>
+  </si>
+  <si>
+    <t>Prefix sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs</t>
+  </si>
+  <si>
+    <t>493. Reverse Pairs</t>
+  </si>
+  <si>
+    <t>When you only need to maintain relative positions, you use merge sort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-circular-subarray/</t>
+  </si>
+  <si>
+    <t>918. Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>kadane and prefixsum and suffixsum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-build-sturdy-brick-wall/</t>
+  </si>
+  <si>
+    <t>2184. Number of Ways to Build Sturdy Brick Wall</t>
+  </si>
+  <si>
+    <t>It is actually brute force dp, with a little bit of bit manipulation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimize-the-difference-between-target-and-chosen-elements/</t>
+  </si>
+  <si>
+    <t>1981. Minimize the Difference Between Target and Chosen Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
+  </si>
+  <si>
+    <t>416. Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>knapsack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-split-array/</t>
+  </si>
+  <si>
+    <t>2270. Number of Ways to Split Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-concatenation-maximum-sum/</t>
+  </si>
+  <si>
+    <t>1191. K-Concatenation Maximum Sum</t>
+  </si>
+  <si>
+    <t>generic kadane</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-ascii-delete-sum-for-two-strings/</t>
+  </si>
+  <si>
+    <t>712. Minimum ASCII Delete Sum for Two Strings</t>
+  </si>
+  <si>
+    <t>generic path to sum, never stop believing in your self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-all-valid-pickup-and-delivery-options/</t>
+  </si>
+  <si>
+    <t>1359. Count All Valid Pickup and Delivery Options</t>
+  </si>
+  <si>
+    <t>first, generic recursion solution, then top down solution (TLE), then bottom up solution based on top-down</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-profit-assigning-work/</t>
+  </si>
+  <si>
+    <t>Arrays binary Search</t>
+  </si>
+  <si>
+    <t>826. Most Profit Assigning Work</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum/</t>
+  </si>
+  <si>
+    <t>1477. Find Two Non-overlapping Sub-arrays Each With Target Sum</t>
+  </si>
+  <si>
+    <t>Prefix and suffix sum</t>
+  </si>
+  <si>
+    <t>2189. Number of Ways to Build House of Cards</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fair-distribution-of-cookies/</t>
+  </si>
+  <si>
+    <t>dfs generic dp</t>
+  </si>
+  <si>
+    <t>similar to find minimum time to finish all jobs, when n is smaller than 32, we can use bit masking to find subsets</t>
+  </si>
+  <si>
+    <t>2305. Fair Distribution of Cookie</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Generic Kadane</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-turbulent-subarray/</t>
+  </si>
+  <si>
+    <t>Some form of Kadane</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-sub-arrays-with-odd-sum/</t>
+  </si>
+  <si>
+    <t>1524. Number of Sub-arrays With Odd Sum</t>
+  </si>
+  <si>
+    <t>kadane</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/brightest-position-on-street/</t>
+  </si>
+  <si>
+    <t>2021. Brightest Position on Street</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reveal-cards-in-increasing-order/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray-sum-with-one-deletion/</t>
+  </si>
+  <si>
+    <t>1186. Maximum Subarray Sum with One Deletion</t>
+  </si>
+  <si>
+    <t>950. Reveal Cards In Increasing Order</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-earnings-from-taxi/</t>
+  </si>
+  <si>
+    <t>2008. Maximum Earnings From Taxi</t>
+  </si>
+  <si>
+    <t>kadane with dp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,20 +690,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -92,41 +769,239 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,15 +1017,95 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" dataDxfId="0" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="4">
+    <tableColumn id="4" name="Date" dataDxfId="37">
+      <calculatedColumnFormula>D</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="Name" dataDxfId="36"/>
+    <tableColumn id="2" name="Link" dataDxfId="35" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D41" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:D41"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Date" dataDxfId="31">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="1"/>
+    <tableColumn id="1" name="Name" dataDxfId="30"/>
+    <tableColumn id="2" name="Link" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Link"/>
+    <tableColumn id="4" name="Logical Thinking Process"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D14" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D14"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Date" dataDxfId="21"/>
+    <tableColumn id="1" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" name="Link" dataDxfId="19" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table14356" displayName="Table14356" ref="A1:D6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Date" dataDxfId="15"/>
+    <tableColumn id="1" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" name="Link" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Date" dataDxfId="9"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Link" dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14358" displayName="Table14358" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,62 +1374,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <f t="shared" ref="A2" ca="1" si="0">TODAY()</f>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>44640</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44671</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44672</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44674</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -485,4 +1496,1206 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="50.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44659</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44660</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44662</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44664</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44664</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44665</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44669</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44677</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44680</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44683</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44692</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44692</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44693</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44693</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44693</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44695</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44696</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44697</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44748</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44748</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44707</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44710</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44714</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44717</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44719</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44725</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44726</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44745</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44748</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="C28" r:id="rId8"/>
+    <hyperlink ref="C41" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A16" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>44650</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44665</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44670</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44670</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44672</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44672</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44673</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44698</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44724</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44741</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44744</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44650</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44651</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44652</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44654</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44678</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44699</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="216">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -604,18 +604,9 @@
     <t>2189. Number of Ways to Build House of Cards</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/fair-distribution-of-cookies/</t>
-  </si>
-  <si>
     <t>dfs generic dp</t>
   </si>
   <si>
-    <t>similar to find minimum time to finish all jobs, when n is smaller than 32, we can use bit masking to find subsets</t>
-  </si>
-  <si>
-    <t>2305. Fair Distribution of Cookie</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/maximum-subarray/</t>
   </si>
   <si>
@@ -668,6 +659,48 @@
   </si>
   <si>
     <t>kadane with dp</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-way-to-form-string/</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>1055. Shortest Way to Form String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight-ii/</t>
+  </si>
+  <si>
+    <t>1049. Last Stone Weight II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-an-expression-tree-with-evaluate-function/</t>
+  </si>
+  <si>
+    <t>1628. Design an Expression Tree With Evaluate Function</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray-min-product/</t>
+  </si>
+  <si>
+    <t>1856. Maximum Subarray Min-Product</t>
+  </si>
+  <si>
+    <t>Monotonic stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>sliding window</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D14" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D18"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Date" dataDxfId="21"/>
     <tableColumn id="1" name="Name" dataDxfId="20"/>
@@ -1380,16 +1413,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="12.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44640</v>
       </c>
@@ -1417,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44642</v>
       </c>
@@ -1431,7 +1464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44649</v>
       </c>
@@ -1445,7 +1478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44671</v>
       </c>
@@ -1459,7 +1492,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44672</v>
       </c>
@@ -1473,7 +1506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44674</v>
       </c>
@@ -1502,20 +1535,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="50.140625" style="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="50.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -1529,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44641</v>
       </c>
@@ -1543,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44641</v>
       </c>
@@ -1557,7 +1590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44642</v>
       </c>
@@ -1571,7 +1604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44643</v>
       </c>
@@ -1585,7 +1618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44646</v>
       </c>
@@ -1599,7 +1632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44659</v>
       </c>
@@ -1613,7 +1646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44659</v>
       </c>
@@ -1627,7 +1660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44660</v>
       </c>
@@ -1639,7 +1672,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44662</v>
       </c>
@@ -1653,7 +1686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44664</v>
       </c>
@@ -1667,7 +1700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44664</v>
       </c>
@@ -1681,7 +1714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44665</v>
       </c>
@@ -1693,7 +1726,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44669</v>
       </c>
@@ -1707,7 +1740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44677</v>
       </c>
@@ -1721,7 +1754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44680</v>
       </c>
@@ -1735,7 +1768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44683</v>
       </c>
@@ -1749,7 +1782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44692</v>
       </c>
@@ -1763,7 +1796,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44692</v>
       </c>
@@ -1777,7 +1810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44693</v>
       </c>
@@ -1791,7 +1824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44693</v>
       </c>
@@ -1805,7 +1838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44693</v>
       </c>
@@ -1819,7 +1852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44695</v>
       </c>
@@ -1833,7 +1866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44696</v>
       </c>
@@ -1847,7 +1880,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44697</v>
       </c>
@@ -1861,10 +1894,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f ca="1">TODAY()</f>
-        <v>44748</v>
+        <v>44770</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>155</v>
@@ -1876,10 +1909,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f ca="1">TODAY()</f>
-        <v>44748</v>
+        <v>44770</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>158</v>
@@ -1891,7 +1924,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44707</v>
       </c>
@@ -1903,7 +1936,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44710</v>
       </c>
@@ -1915,7 +1948,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44713</v>
       </c>
@@ -1929,7 +1962,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>44714</v>
       </c>
@@ -1943,7 +1976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44717</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44719</v>
       </c>
@@ -1971,7 +2004,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44725</v>
       </c>
@@ -1985,7 +2018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44726</v>
       </c>
@@ -1994,92 +2027,92 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44739</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>44734</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44740</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44740</v>
+        <v>44745</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>44745</v>
+        <f ca="1">TODAY()</f>
+        <v>44770</v>
       </c>
       <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44748</v>
-      </c>
-      <c r="B41" t="s">
-        <v>203</v>
+        <v>44751</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2125,7 @@
     <hyperlink ref="C17" r:id="rId6"/>
     <hyperlink ref="C19" r:id="rId7"/>
     <hyperlink ref="C28" r:id="rId8"/>
-    <hyperlink ref="C41" r:id="rId9"/>
+    <hyperlink ref="C40" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
@@ -2113,16 +2146,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
-    <col min="11" max="11" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
+    <col min="11" max="11" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44650</v>
       </c>
@@ -2150,19 +2183,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="10"/>
       <c r="C3" s="9"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K9" s="6"/>
     </row>
   </sheetData>
@@ -2178,22 +2211,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44643</v>
       </c>
@@ -2221,7 +2254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44649</v>
       </c>
@@ -2235,7 +2268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44665</v>
       </c>
@@ -2249,7 +2282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44670</v>
       </c>
@@ -2263,7 +2296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44670</v>
       </c>
@@ -2277,7 +2310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44672</v>
       </c>
@@ -2291,7 +2324,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44672</v>
       </c>
@@ -2305,7 +2338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44673</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44698</v>
       </c>
@@ -2333,7 +2366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44713</v>
       </c>
@@ -2347,7 +2380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44724</v>
       </c>
@@ -2361,38 +2394,97 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44741</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44744</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44750</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44759</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44770</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2405,16 +2497,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="14" max="14" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2428,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44649</v>
       </c>
@@ -2442,7 +2534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44650</v>
       </c>
@@ -2456,7 +2548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44651</v>
       </c>
@@ -2470,7 +2562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44651</v>
       </c>
@@ -2484,7 +2576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44666</v>
       </c>
@@ -2517,18 +2609,18 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44648</v>
       </c>
@@ -2556,7 +2648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44649</v>
       </c>
@@ -2570,7 +2662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44652</v>
       </c>
@@ -2584,7 +2676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44654</v>
       </c>
@@ -2598,7 +2690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44678</v>
       </c>
@@ -2627,20 +2719,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.28515625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2654,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44699</v>
       </c>
@@ -2668,22 +2760,22 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>

--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
@@ -1067,6 +1067,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D41" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:D41"/>
+  <sortState ref="A2:D41">
+    <sortCondition ref="A1:A41"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="4" name="Date" dataDxfId="31">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
@@ -1535,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,223 +1899,220 @@
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44770</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>44707</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44770</v>
+        <v>44710</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44707</v>
+        <v>44713</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>44710</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>44714</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>44713</v>
+        <v>44717</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>44714</v>
+        <v>44719</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>44717</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>171</v>
+        <v>44725</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>44719</v>
-      </c>
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>173</v>
-      </c>
+        <v>44726</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>44725</v>
+        <v>44739</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>44726</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>44740</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>44740</v>
+        <v>44745</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>44740</v>
-      </c>
-      <c r="B38" t="s">
-        <v>190</v>
+        <v>44751</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>44745</v>
-      </c>
-      <c r="B39" t="s">
-        <v>196</v>
+        <v>44754</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44770</v>
-      </c>
-      <c r="B40" t="s">
+        <v>44764</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44768</v>
+      </c>
+      <c r="B41" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>44751</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2124,14 +2124,11 @@
     <hyperlink ref="C5" r:id="rId5"/>
     <hyperlink ref="C17" r:id="rId6"/>
     <hyperlink ref="C19" r:id="rId7"/>
-    <hyperlink ref="C28" r:id="rId8"/>
-    <hyperlink ref="C40" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId8"/>
+    <hyperlink ref="C41" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A16" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId11"/>
   </tableParts>
@@ -2719,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
-    <sheet name="Dynamic Programming" sheetId="2" r:id="rId2"/>
-    <sheet name="KMP Pattern-Matching" sheetId="8" r:id="rId3"/>
-    <sheet name="Data Structure Question" sheetId="3" r:id="rId4"/>
-    <sheet name="BackTracking" sheetId="5" r:id="rId5"/>
-    <sheet name="DFS BFS Graph Tree" sheetId="4" r:id="rId6"/>
-    <sheet name="Merge Sort" sheetId="9" r:id="rId7"/>
+    <sheet name="Greedy" sheetId="11" r:id="rId2"/>
+    <sheet name="Dynamic Programming" sheetId="2" r:id="rId3"/>
+    <sheet name="KMP Pattern-Matching" sheetId="8" r:id="rId4"/>
+    <sheet name="DSA" sheetId="3" r:id="rId5"/>
+    <sheet name="BackTracking" sheetId="5" r:id="rId6"/>
+    <sheet name="DFS BFS Graph Tree" sheetId="4" r:id="rId7"/>
+    <sheet name="Merge Sort" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -701,6 +702,207 @@
   </si>
   <si>
     <t>sliding window</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-subarrays-with-score-less-than-k/</t>
+  </si>
+  <si>
+    <t>2302. Count Subarrays With Score Less Than K</t>
+  </si>
+  <si>
+    <t>generic two poitners</t>
+  </si>
+  <si>
+    <t>2336. Smallest Number in Infinite Set</t>
+  </si>
+  <si>
+    <t>Constraint give it away</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-ancestors-of-a-node-in-a-directed-acyclic-graph/</t>
+  </si>
+  <si>
+    <t>2192. All Ancestors of a Node in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Topologcial sort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-subarray-ranges/</t>
+  </si>
+  <si>
+    <t>2104. Sum of Subarray Ranges</t>
+  </si>
+  <si>
+    <t>monotonic stacs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/</t>
+  </si>
+  <si>
+    <t>1011. Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/employee-free-time/</t>
+  </si>
+  <si>
+    <t>759. Employee Free Time</t>
+  </si>
+  <si>
+    <t>sometimes, they look like merge sort, but actually, you only need to sort once, and then merge together. Don’t over think</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/</t>
+  </si>
+  <si>
+    <t>974. Subarray Sums Divisible by K</t>
+  </si>
+  <si>
+    <t>a = (a + mod) % mod</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/</t>
+  </si>
+  <si>
+    <t>1130. Minimum Cost Tree From Leaf Values</t>
+  </si>
+  <si>
+    <t>monotonic stack, consuming smallest values</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/online-stock-span/</t>
+  </si>
+  <si>
+    <t>901. Online Stock Span</t>
+  </si>
+  <si>
+    <t>monotonic stack</t>
+  </si>
+  <si>
+    <t>1249. Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/</t>
+  </si>
+  <si>
+    <t>use stack it is easier</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-word-distance-ii/</t>
+  </si>
+  <si>
+    <t>244. Shortest Word Distance II</t>
+  </si>
+  <si>
+    <t>HashMap motherfuckers!</t>
+  </si>
+  <si>
+    <t>2045. Second Minimum Time to Reach Destination</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/second-minimum-time-to-reach-destination/</t>
+  </si>
+  <si>
+    <t>Dijkstra Algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-lonely-numbers-in-the-array/</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>2150. Find All Lonely Numbers in the Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps/</t>
+  </si>
+  <si>
+    <t>1269. Number of Ways to Stay in the Same Place After Some Steps</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bulb-switcher</t>
+  </si>
+  <si>
+    <t>Math problem</t>
+  </si>
+  <si>
+    <t>319. Bulb Switcher</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-points-with-cost/</t>
+  </si>
+  <si>
+    <t>1937. Maximum Number of Points with Cost</t>
+  </si>
+  <si>
+    <t>Kadane</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/car-fleet/</t>
+  </si>
+  <si>
+    <t>853. Car Fleet</t>
+  </si>
+  <si>
+    <t>1014. Best Sightseeing Pair</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-sightseeing-pair/</t>
+  </si>
+  <si>
+    <t>1626. Best Team With No Conflicts</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-team-with-no-conflicts/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/toss-strange-coins/</t>
+  </si>
+  <si>
+    <t>1230. Toss Strange Coins</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>1255. Maximum Score Words Formed by Letters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-score-words-formed-by-letters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reducing-dishes/</t>
+  </si>
+  <si>
+    <t>1402. Reducing Dishes</t>
+  </si>
+  <si>
+    <t>857. Minimum Cost to Hire K Workers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-hire-k-workers/</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Logical Thinking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-compatibility-score-sum/description/</t>
+  </si>
+  <si>
+    <t>1947. Maximum Compatibility Score Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum-ii/description/</t>
+  </si>
+  <si>
+    <t>1289. Minimum Falling Path Sum II</t>
   </si>
 </sst>
 </file>
@@ -802,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -862,12 +1064,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1018,6 +1221,9 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1050,23 +1256,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="37">
+    <tableColumn id="4" name="Date" dataDxfId="38">
       <calculatedColumnFormula>D</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Name" dataDxfId="36"/>
-    <tableColumn id="2" name="Link" dataDxfId="35" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="34"/>
+    <tableColumn id="1" name="Name" dataDxfId="37"/>
+    <tableColumn id="2" name="Link" dataDxfId="36" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D41" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:D41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date" dataDxfId="34"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Link" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Logical Thinking"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D50" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:D50"/>
   <sortState ref="A2:D41">
     <sortCondition ref="A1:A41"/>
   </sortState>
@@ -1082,7 +1301,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
@@ -1095,9 +1314,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:D18"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Date" dataDxfId="21"/>
     <tableColumn id="1" name="Name" dataDxfId="20"/>
@@ -1108,7 +1327,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table14356" displayName="Table14356" ref="A1:D6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
@@ -1121,9 +1340,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D6"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Date" dataDxfId="9"/>
     <tableColumn id="1" name="Name" dataDxfId="8"/>
@@ -1134,7 +1353,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14358" displayName="Table14358" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
@@ -1413,7 +1632,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,15 +1755,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>44897</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="C3" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="75.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2113,6 +2391,128 @@
       </c>
       <c r="D41" s="4" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44833</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44859</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44878</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44886</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44888</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44892</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44902</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44904</v>
+      </c>
+      <c r="B50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2126,16 +2526,19 @@
     <hyperlink ref="C19" r:id="rId7"/>
     <hyperlink ref="C26" r:id="rId8"/>
     <hyperlink ref="C41" r:id="rId9"/>
+    <hyperlink ref="C34" r:id="rId10"/>
+    <hyperlink ref="C44" r:id="rId11"/>
+    <hyperlink ref="C45" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -2206,17 +2609,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -2475,18 +2878,189 @@
         <v>215</v>
       </c>
     </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44785</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44786</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44787</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44787</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44791</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44791</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44808</v>
+      </c>
+      <c r="B27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44852</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44854</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44870</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C28" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2598,18 +3172,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="8.88671875" style="1"/>
@@ -2701,23 +3275,68 @@
         <v>117</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44786</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44814</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44817</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2757,10 +3376,19 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>

--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="285">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t>1289. Minimum Falling Path Sum II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-number-of-ways-to-place-houses/description/</t>
+  </si>
+  <si>
+    <t>2320. Count Number of Ways to Place Houses</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1290,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D50" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:D50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D51" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:D51"/>
   <sortState ref="A2:D41">
     <sortCondition ref="A1:A41"/>
   </sortState>
@@ -1814,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2512,6 +2518,20 @@
         <v>281</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44925</v>
+      </c>
+      <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>76</v>
       </c>
     </row>

--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="287">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -909,6 +909,12 @@
   </si>
   <si>
     <t>2320. Count Number of Ways to Place Houses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cut-off-trees-for-golf-event/description/</t>
+  </si>
+  <si>
+    <t>675. Cut Off Trees for Golf Event</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1353,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Date" dataDxfId="9"/>
     <tableColumn id="1" name="Name" dataDxfId="8"/>
@@ -1822,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -3194,10 +3200,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,6 +3341,20 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44996</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="297">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -915,6 +915,36 @@
   </si>
   <si>
     <t>675. Cut Off Trees for Golf Event</t>
+  </si>
+  <si>
+    <t>2472. Maximum Number of Non-overlapping Palindrome Substrings</t>
+  </si>
+  <si>
+    <t>1727. Largest Submatrix With Rearrangements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-submatrix-with-rearrangements/description/</t>
+  </si>
+  <si>
+    <t>Accumulated height, plus sort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/description/</t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Hare and Turtle problem</t>
+  </si>
+  <si>
+    <t>1382. Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balance-a-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Balance Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1130,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1119,7 +1149,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1296,8 +1326,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D51" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:D51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D53" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:D53"/>
   <sortState ref="A2:D41">
     <sortCondition ref="A1:A41"/>
   </sortState>
@@ -1327,8 +1357,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:D30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D31"/>
   <tableColumns count="4">
     <tableColumn id="4" name="Date" dataDxfId="21"/>
     <tableColumn id="1" name="Name" dataDxfId="20"/>
@@ -1353,26 +1383,26 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="9"/>
-    <tableColumn id="1" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Link" dataDxfId="7" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="6"/>
+    <tableColumn id="4" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14358" displayName="Table14358" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14358" displayName="Table14358" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="3"/>
-    <tableColumn id="1" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="0"/>
+    <tableColumn id="4" name="Date" dataDxfId="9"/>
+    <tableColumn id="1" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Link" dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1770,15 +1800,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,32 +1840,43 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="23">
+        <v>45021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="75.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="50.109375" style="1"/>
@@ -2540,6 +2581,26 @@
       <c r="D51" s="4" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>45015</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2637,17 +2698,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="C22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -3070,6 +3131,20 @@
       </c>
       <c r="D30" s="4" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45024</v>
+      </c>
+      <c r="B31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3200,17 +3275,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -3355,6 +3430,20 @@
       </c>
       <c r="D10" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45028</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/LCProblems.xlsx
+++ b/LCProblems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Union Find" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="299">
   <si>
     <t>https://leetcode.com/problems/regions-cut-by-slashes</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>Balance Binary Search Tree</t>
+  </si>
+  <si>
+    <t>945. Minimum Increment to Make Array Unique</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-increment-to-make-array-unique/description/</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1107,12 +1113,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="45">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1130,7 +1155,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1149,7 +1174,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1263,9 +1288,6 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1298,53 +1320,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="38">
+    <tableColumn id="4" name="Date" dataDxfId="42">
       <calculatedColumnFormula>D</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Name" dataDxfId="37"/>
-    <tableColumn id="2" name="Link" dataDxfId="36" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="35"/>
+    <tableColumn id="1" name="Name" dataDxfId="41"/>
+    <tableColumn id="2" name="Link" dataDxfId="40" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D4" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Date" dataDxfId="34"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Link" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Logical Thinking"/>
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Logical Thinking" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D53" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D53" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:D53"/>
   <sortState ref="A2:D41">
     <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="31">
+    <tableColumn id="4" name="Date" dataDxfId="36">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Name" dataDxfId="30"/>
-    <tableColumn id="2" name="Link" dataDxfId="29" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="28"/>
+    <tableColumn id="1" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" name="Link" dataDxfId="34" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D5" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date"/>
@@ -1357,52 +1379,52 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table143" displayName="Table143" ref="A1:D31" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:D31"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="21"/>
-    <tableColumn id="1" name="Name" dataDxfId="20"/>
-    <tableColumn id="2" name="Link" dataDxfId="19" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="18"/>
+    <tableColumn id="4" name="Date" dataDxfId="26"/>
+    <tableColumn id="1" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Link" dataDxfId="24" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table14356" displayName="Table14356" ref="A1:D6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table14356" displayName="Table14356" ref="A1:D6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="15"/>
-    <tableColumn id="1" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" name="Link" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="12"/>
+    <tableColumn id="4" name="Date" dataDxfId="20"/>
+    <tableColumn id="1" name="Name" dataDxfId="19"/>
+    <tableColumn id="2" name="Link" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1435" displayName="Table1435" ref="A1:D11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="3"/>
-    <tableColumn id="1" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="0"/>
+    <tableColumn id="4" name="Date" dataDxfId="14"/>
+    <tableColumn id="1" name="Name" dataDxfId="13"/>
+    <tableColumn id="2" name="Link" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14358" displayName="Table14358" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table14358" displayName="Table14358" ref="A1:D6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Date" dataDxfId="9"/>
-    <tableColumn id="1" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Link" dataDxfId="7" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="6"/>
+    <tableColumn id="4" name="Date" dataDxfId="8"/>
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Link" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Logical Thinking Process" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1797,17 +1819,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1826,41 +1848,56 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="24">
         <v>44897</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="24">
         <v>45021</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>45034</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3277,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
